--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/OHIO_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/OHIO_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D883"/>
+  <dimension ref="A1:D877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="15">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C18">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C20">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C22">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C58">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C79">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C97">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1735,7 +1735,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C103">
@@ -1922,7 +1922,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C117">
@@ -1994,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="123">
@@ -2013,7 +2013,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C124">
@@ -2065,14 +2065,14 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
       <c r="D128">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="132">
@@ -2130,12 +2130,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C133">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C136">
@@ -2233,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="141">
@@ -2246,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="D141">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="142">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C147">
@@ -2382,14 +2382,14 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C152">
         <v>4</v>
       </c>
       <c r="D152">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="153">
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="159">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C162">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C169">
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="D171">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="172">
@@ -2675,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="175">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C177">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C178">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C184">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C190">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C191">
@@ -3011,20 +3011,20 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C200">
         <v>4</v>
       </c>
       <c r="D200">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C202">
@@ -3122,13 +3122,13 @@
         <v>4</v>
       </c>
       <c r="D208">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C209">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3271,14 +3271,14 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C220">
         <v>4</v>
       </c>
       <c r="D220">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="221">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C225">
@@ -3362,20 +3362,20 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C227">
         <v>4</v>
       </c>
       <c r="D227">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C228">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C230">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C234">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3595,13 +3595,13 @@
         <v>4</v>
       </c>
       <c r="D244">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C246">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C253">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C259">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,14 +3926,14 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C270">
         <v>4</v>
       </c>
       <c r="D270">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C272">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="D273">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C276">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C286">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C290">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C296">
@@ -4321,20 +4321,20 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C300">
         <v>4</v>
       </c>
       <c r="D300">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C304">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C311">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C318">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C324">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C330">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C334">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C336">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C340">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C344">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C350">
@@ -5066,7 +5066,7 @@
         <v>4</v>
       </c>
       <c r="D356">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="357">
@@ -5118,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="D360">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="361">
@@ -5157,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="D363">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="364">
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="D384">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="385">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C400">
@@ -5794,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="D412">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="413">
@@ -5846,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="D416">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="417">
@@ -5903,7 +5903,7 @@
         <v>4</v>
       </c>
       <c r="D420">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="421">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,13 +5968,13 @@
         <v>4</v>
       </c>
       <c r="D425">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C426">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C428">
@@ -6072,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="D433">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="434">
@@ -6109,7 +6109,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C436">
@@ -6187,7 +6187,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C442">
@@ -6348,7 +6348,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C454">
@@ -6392,7 +6392,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C457">
@@ -6444,7 +6444,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C461">
@@ -6470,7 +6470,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C463">
@@ -6483,7 +6483,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C464">
@@ -6496,7 +6496,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C465">
@@ -6509,7 +6509,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C466">
@@ -6522,7 +6522,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C467">
@@ -6535,7 +6535,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C468">
@@ -6620,7 +6620,7 @@
         <v>4</v>
       </c>
       <c r="D474">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="475">
@@ -6639,7 +6639,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C476">
@@ -6678,7 +6678,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C479">
@@ -6691,7 +6691,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C480">
@@ -6704,7 +6704,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C481">
@@ -6730,7 +6730,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C483">
@@ -6795,7 +6795,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C488">
@@ -6815,13 +6815,13 @@
         <v>4</v>
       </c>
       <c r="D489">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C490">
@@ -6841,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="D491">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="492">
@@ -7205,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="D519">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="520">
@@ -7224,7 +7224,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C521">
@@ -7270,13 +7270,13 @@
         <v>4</v>
       </c>
       <c r="D524">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C525">
@@ -7614,7 +7614,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C551">
@@ -7699,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="D557">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="558">
@@ -7933,7 +7933,7 @@
         <v>4</v>
       </c>
       <c r="D575">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="576">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8024,7 +8024,7 @@
         <v>4</v>
       </c>
       <c r="D582">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="583">
@@ -8082,7 +8082,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C587">
@@ -8095,7 +8095,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C588">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C589">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C590">
@@ -8134,7 +8134,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C591">
@@ -8147,20 +8147,20 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C592">
         <v>4</v>
       </c>
       <c r="D592">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C593">
@@ -8173,7 +8173,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C594">
@@ -8186,7 +8186,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C595">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C596">
@@ -8212,7 +8212,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C597">
@@ -8225,7 +8225,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C598">
@@ -8251,7 +8251,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C600">
@@ -8264,7 +8264,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C601">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C608">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C624">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C626">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C643">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C647">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C651">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C657">
@@ -9132,14 +9132,14 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C667">
         <v>4</v>
       </c>
       <c r="D667">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="668">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C672">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C674">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C676">
@@ -9428,7 +9428,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C689">
@@ -9532,7 +9532,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C697">
@@ -9558,7 +9558,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C699">
@@ -9610,7 +9610,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C703">
@@ -9636,7 +9636,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C705">
@@ -9649,7 +9649,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C706">
@@ -9662,7 +9662,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C707">
@@ -9713,7 +9713,7 @@
         <v>4</v>
       </c>
       <c r="D710">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="711">
@@ -9887,7 +9887,7 @@
         <v>4</v>
       </c>
       <c r="D723">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="724">
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="D734">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="735">
@@ -10280,7 +10280,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C753">
@@ -10383,7 +10383,7 @@
         <v>4</v>
       </c>
       <c r="D760">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="761">
@@ -10402,7 +10402,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C762">
@@ -10428,7 +10428,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C764">
@@ -10441,7 +10441,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C765">
@@ -10467,7 +10467,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C767">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C770">
@@ -10537,7 +10537,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C772">
@@ -10583,7 +10583,7 @@
         <v>4</v>
       </c>
       <c r="D775">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="776">
@@ -10641,7 +10641,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C780">
@@ -10674,7 +10674,7 @@
         <v>4</v>
       </c>
       <c r="D782">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="783">
@@ -10771,7 +10771,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C790">
@@ -10784,7 +10784,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C791">
@@ -10817,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="D793">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="794">
@@ -10914,7 +10914,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C801">
@@ -10927,7 +10927,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C802">
@@ -10940,7 +10940,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C803">
@@ -10979,7 +10979,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C806">
@@ -11018,7 +11018,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C809">
@@ -11090,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="D814">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="815">
@@ -11135,7 +11135,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C818">
@@ -11155,20 +11155,20 @@
         <v>4</v>
       </c>
       <c r="D819">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C820">
         <v>4</v>
       </c>
       <c r="D820">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="821">
@@ -11220,7 +11220,7 @@
         <v>4</v>
       </c>
       <c r="D824">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="825">
@@ -11239,7 +11239,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C826">
@@ -11252,7 +11252,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C827">
@@ -11382,7 +11382,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C837">
@@ -11460,14 +11460,14 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C843">
         <v>4</v>
       </c>
       <c r="D843">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="844">
@@ -11538,7 +11538,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C849">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C852">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C855">
@@ -11654,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="D857">
-        <v>0.0009720534629404617</v>
+        <v>0.0009720534629404616</v>
       </c>
     </row>
     <row r="858">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C860">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C869">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C870">
@@ -11842,7 +11842,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C872">
@@ -11915,41 +11915,6 @@
       </c>
       <c r="D877">
         <v>1</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
